--- a/identifiability/BeattieAllProtocolsOwnData.xlsx
+++ b/identifiability/BeattieAllProtocolsOwnData.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmzgm/git/space-filling-designs/identifiability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{135A325F-8A32-1C47-A443-4B7ED57EC8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F10CAE-33ED-AD4D-944C-756F74BABC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="31640" activeTab="1"/>
+    <workbookView xWindow="3400" yWindow="19880" windowWidth="60160" windowHeight="31640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BeattieAllProtocolsOwnData" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="24">
   <si>
     <t>model_class</t>
   </si>
@@ -106,13 +128,19 @@
     <t>gKr</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max = </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -553,7 +581,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -596,14 +624,17 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -643,6 +674,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Per cent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -956,12 +988,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P851"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P817"/>
+      <selection activeCell="V377" sqref="V377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43514,7 +43546,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E851">
+  <autoFilter ref="E1:E851" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="spacefill19"/>
@@ -43526,16 +43558,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z174"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AL171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="R174" sqref="R174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -43589,8 +43621,41 @@
       <c r="Z1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2.2599999999999999E-4</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>3.4480000000000002E-5</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="AF1">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>8.9099999999999995E-3</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>5.1500000000000001E-3</v>
+      </c>
+      <c r="AI1">
+        <v>3.1579999999999997E-2</v>
+      </c>
+      <c r="AJ1">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42</v>
       </c>
@@ -43642,7 +43707,7 @@
         <v>2.2677E-4</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:AB2" si="0">G2</f>
+        <f t="shared" ref="S2:Z2" si="0">G2</f>
         <v>6.9824319999999995E-2</v>
       </c>
       <c r="T2">
@@ -43673,8 +43738,48 @@
         <f t="shared" si="0"/>
         <v>0.15240000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB2" s="4">
+        <f>(R2-AB$1)/AB$1</f>
+        <v>3.407079646017734E-3</v>
+      </c>
+      <c r="AC2" s="4">
+        <f t="shared" ref="AC2:AJ2" si="1">(S2-AC$1)/AC$1</f>
+        <v>-1.0826895565094208E-3</v>
+      </c>
+      <c r="AD2" s="4">
+        <f t="shared" si="1"/>
+        <v>3.4802784222737484E-3</v>
+      </c>
+      <c r="AE2" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.080586080586213E-4</v>
+      </c>
+      <c r="AF2" s="4">
+        <f t="shared" si="1"/>
+        <v>-7.1443298969079067E-4</v>
+      </c>
+      <c r="AG2" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0482603815937198E-3</v>
+      </c>
+      <c r="AH2" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.0388349514563727E-3</v>
+      </c>
+      <c r="AI2" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5459151361623892E-4</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL2" s="5" cm="1">
+        <f t="array" ref="AL2">MAX(ABS(AB2:AJ2))</f>
+        <v>3.4802784222737484E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43</v>
       </c>
@@ -43721,8 +43826,12 @@
         <v>3.615604E-2</v>
       </c>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL3" s="5" cm="1">
+        <f t="array" ref="AL3">MAX(ABS(AB3:AJ3))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>41</v>
       </c>
@@ -43769,8 +43878,12 @@
         <v>3.896119E-2</v>
       </c>
       <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL4" s="5" cm="1">
+        <f t="array" ref="AL4">MAX(ABS(AB4:AJ4))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44</v>
       </c>
@@ -43817,8 +43930,12 @@
         <v>4.6773179999999998E-2</v>
       </c>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL5" s="5" cm="1">
+        <f t="array" ref="AL5">MAX(ABS(AB5:AJ5))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45</v>
       </c>
@@ -43865,8 +43982,12 @@
         <v>5.6641150000000001E-2</v>
       </c>
       <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL6" s="5" cm="1">
+        <f t="array" ref="AL6">MAX(ABS(AB6:AJ6))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>40</v>
       </c>
@@ -43913,8 +44034,12 @@
         <v>6.1304480000000001E-2</v>
       </c>
       <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL7" s="5" cm="1">
+        <f t="array" ref="AL7">MAX(ABS(AB7:AJ7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>46</v>
       </c>
@@ -43961,8 +44086,12 @@
         <v>6.4870709999999998E-2</v>
       </c>
       <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL8" s="5" cm="1">
+        <f t="array" ref="AL8">MAX(ABS(AB8:AJ8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>47</v>
       </c>
@@ -44009,8 +44138,12 @@
         <v>7.1591740000000001E-2</v>
       </c>
       <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL9" s="5" cm="1">
+        <f t="array" ref="AL9">MAX(ABS(AB9:AJ9))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>48</v>
       </c>
@@ -44057,8 +44190,12 @@
         <v>7.7079330000000001E-2</v>
       </c>
       <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL10" s="5" cm="1">
+        <f t="array" ref="AL10">MAX(ABS(AB10:AJ10))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>49</v>
       </c>
@@ -44105,8 +44242,12 @@
         <v>8.1579780000000005E-2</v>
       </c>
       <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL11" s="5" cm="1">
+        <f t="array" ref="AL11">MAX(ABS(AB11:AJ11))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>50</v>
       </c>
@@ -44153,8 +44294,12 @@
         <v>8.5288559999999999E-2</v>
       </c>
       <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL12" s="5" cm="1">
+        <f t="array" ref="AL12">MAX(ABS(AB12:AJ12))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>39</v>
       </c>
@@ -44201,8 +44346,12 @@
         <v>8.9938660000000004E-2</v>
       </c>
       <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL13" s="5" cm="1">
+        <f t="array" ref="AL13">MAX(ABS(AB13:AJ13))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>38</v>
       </c>
@@ -44249,8 +44398,12 @@
         <v>0.12132906</v>
       </c>
       <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL14" s="5" cm="1">
+        <f t="array" ref="AL14">MAX(ABS(AB14:AJ14))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>37</v>
       </c>
@@ -44297,8 +44450,12 @@
         <v>0.15376429999999999</v>
       </c>
       <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL15" s="5" cm="1">
+        <f t="array" ref="AL15">MAX(ABS(AB15:AJ15))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>36</v>
       </c>
@@ -44345,8 +44502,12 @@
         <v>0.18629306000000001</v>
       </c>
       <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL16" s="5" cm="1">
+        <f t="array" ref="AL16">MAX(ABS(AB16:AJ16))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>35</v>
       </c>
@@ -44393,8 +44554,12 @@
         <v>0.21835609</v>
       </c>
       <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL17" s="5" cm="1">
+        <f t="array" ref="AL17">MAX(ABS(AB17:AJ17))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>34</v>
       </c>
@@ -44441,8 +44606,12 @@
         <v>0.24964262000000001</v>
       </c>
       <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL18" s="5" cm="1">
+        <f t="array" ref="AL18">MAX(ABS(AB18:AJ18))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>127</v>
       </c>
@@ -44516,8 +44685,48 @@
       <c r="Z19" s="2">
         <v>0.15240000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB19" s="4">
+        <f>(R19-AB$1)/AB$1</f>
+        <v>-1.4159292035398096E-3</v>
+      </c>
+      <c r="AC19" s="4">
+        <f t="shared" ref="AC19" si="2">(S19-AC$1)/AC$1</f>
+        <v>2.3719599427757008E-4</v>
+      </c>
+      <c r="AD19" s="4">
+        <f t="shared" ref="AD19" si="3">(T19-AD$1)/AD$1</f>
+        <v>5.8004640371219309E-4</v>
+      </c>
+      <c r="AE19" s="4">
+        <f t="shared" ref="AE19" si="4">(U19-AE$1)/AE$1</f>
+        <v>9.3406593405720967E-6</v>
+      </c>
+      <c r="AF19" s="4">
+        <f t="shared" ref="AF19" si="5">(V19-AF$1)/AF$1</f>
+        <v>-7.4226804123747424E-5</v>
+      </c>
+      <c r="AG19" s="4">
+        <f t="shared" ref="AG19" si="6">(W19-AG$1)/AG$1</f>
+        <v>-2.3456790123453771E-4</v>
+      </c>
+      <c r="AH19" s="4">
+        <f t="shared" ref="AH19" si="7">(X19-AH$1)/AH$1</f>
+        <v>-1.1456310679610982E-4</v>
+      </c>
+      <c r="AI19" s="4">
+        <f t="shared" ref="AI19" si="8">(Y19-AI$1)/AI$1</f>
+        <v>4.5123495883471736E-4</v>
+      </c>
+      <c r="AJ19" s="4">
+        <f t="shared" ref="AJ19" si="9">(Z19-AJ$1)/AJ$1</f>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="5" cm="1">
+        <f t="array" ref="AL19">MAX(ABS(AB19:AJ19))</f>
+        <v>1.4159292035398096E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>128</v>
       </c>
@@ -44564,8 +44773,12 @@
         <v>3.6137830000000003E-2</v>
       </c>
       <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL20" s="5" cm="1">
+        <f t="array" ref="AL20">MAX(ABS(AB20:AJ20))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>126</v>
       </c>
@@ -44612,8 +44825,12 @@
         <v>3.8927620000000003E-2</v>
       </c>
       <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL21" s="5" cm="1">
+        <f t="array" ref="AL21">MAX(ABS(AB21:AJ21))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>129</v>
       </c>
@@ -44660,8 +44877,12 @@
         <v>4.6773540000000002E-2</v>
       </c>
       <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL22" s="5" cm="1">
+        <f t="array" ref="AL22">MAX(ABS(AB22:AJ22))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>130</v>
       </c>
@@ -44708,8 +44929,12 @@
         <v>5.6654709999999997E-2</v>
       </c>
       <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL23" s="5" cm="1">
+        <f t="array" ref="AL23">MAX(ABS(AB23:AJ23))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>125</v>
       </c>
@@ -44756,8 +44981,12 @@
         <v>6.1284129999999999E-2</v>
       </c>
       <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL24" s="5" cm="1">
+        <f t="array" ref="AL24">MAX(ABS(AB24:AJ24))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>131</v>
       </c>
@@ -44804,8 +45033,12 @@
         <v>6.4893610000000004E-2</v>
       </c>
       <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL25" s="5" cm="1">
+        <f t="array" ref="AL25">MAX(ABS(AB25:AJ25))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>132</v>
       </c>
@@ -44852,8 +45085,12 @@
         <v>7.1621299999999999E-2</v>
       </c>
       <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL26" s="5" cm="1">
+        <f t="array" ref="AL26">MAX(ABS(AB26:AJ26))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>133</v>
       </c>
@@ -44900,8 +45137,12 @@
         <v>7.7113669999999995E-2</v>
       </c>
       <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL27" s="5" cm="1">
+        <f t="array" ref="AL27">MAX(ABS(AB27:AJ27))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>134</v>
       </c>
@@ -44948,8 +45189,12 @@
         <v>8.1617609999999993E-2</v>
       </c>
       <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL28" s="5" cm="1">
+        <f t="array" ref="AL28">MAX(ABS(AB28:AJ28))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>135</v>
       </c>
@@ -44996,8 +45241,12 @@
         <v>8.5328959999999995E-2</v>
       </c>
       <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL29" s="5" cm="1">
+        <f t="array" ref="AL29">MAX(ABS(AB29:AJ29))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>124</v>
       </c>
@@ -45044,8 +45293,12 @@
         <v>8.9927789999999994E-2</v>
       </c>
       <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL30" s="5" cm="1">
+        <f t="array" ref="AL30">MAX(ABS(AB30:AJ30))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>123</v>
       </c>
@@ -45092,8 +45345,12 @@
         <v>0.12132535999999999</v>
       </c>
       <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL31" s="5" cm="1">
+        <f t="array" ref="AL31">MAX(ABS(AB31:AJ31))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>122</v>
       </c>
@@ -45140,8 +45397,12 @@
         <v>0.15376745999999999</v>
       </c>
       <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL32" s="5" cm="1">
+        <f t="array" ref="AL32">MAX(ABS(AB32:AJ32))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>121</v>
       </c>
@@ -45188,8 +45449,12 @@
         <v>0.18630366000000001</v>
       </c>
       <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL33" s="5" cm="1">
+        <f t="array" ref="AL33">MAX(ABS(AB33:AJ33))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>120</v>
       </c>
@@ -45236,8 +45501,12 @@
         <v>0.21837487</v>
       </c>
       <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL34" s="5" cm="1">
+        <f t="array" ref="AL34">MAX(ABS(AB34:AJ34))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>119</v>
       </c>
@@ -45284,8 +45553,12 @@
         <v>0.24967039999999999</v>
       </c>
       <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL35" s="5" cm="1">
+        <f t="array" ref="AL35">MAX(ABS(AB35:AJ35))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>212</v>
       </c>
@@ -45359,8 +45632,48 @@
       <c r="Z36" s="2">
         <v>0.15240000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB36" s="4">
+        <f>(R36-AB$1)/AB$1</f>
+        <v>3.8053097345133432E-3</v>
+      </c>
+      <c r="AC36" s="4">
+        <f t="shared" ref="AC36" si="10">(S36-AC$1)/AC$1</f>
+        <v>-9.0529327610871081E-4</v>
+      </c>
+      <c r="AD36" s="4">
+        <f t="shared" ref="AD36" si="11">(T36-AD$1)/AD$1</f>
+        <v>5.8004640371219309E-4</v>
+      </c>
+      <c r="AE36" s="4">
+        <f t="shared" ref="AE36" si="12">(U36-AE$1)/AE$1</f>
+        <v>7.509157509144685E-6</v>
+      </c>
+      <c r="AF36" s="4">
+        <f t="shared" ref="AF36" si="13">(V36-AF$1)/AF$1</f>
+        <v>-5.8671248568161046E-4</v>
+      </c>
+      <c r="AG36" s="4">
+        <f t="shared" ref="AG36" si="14">(W36-AG$1)/AG$1</f>
+        <v>1.3535353535354924E-3</v>
+      </c>
+      <c r="AH36" s="4">
+        <f t="shared" ref="AH36" si="15">(X36-AH$1)/AH$1</f>
+        <v>-4.0582524271839433E-4</v>
+      </c>
+      <c r="AI36" s="4">
+        <f t="shared" ref="AI36" si="16">(Y36-AI$1)/AI$1</f>
+        <v>-4.0500316656107149E-4</v>
+      </c>
+      <c r="AJ36" s="4">
+        <f t="shared" ref="AJ36" si="17">(Z36-AJ$1)/AJ$1</f>
+        <v>0</v>
+      </c>
+      <c r="AL36" s="5" cm="1">
+        <f t="array" ref="AL36">MAX(ABS(AB36:AJ36))</f>
+        <v>3.8053097345133432E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>213</v>
       </c>
@@ -45407,8 +45720,12 @@
         <v>3.6188579999999998E-2</v>
       </c>
       <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL37" s="5" cm="1">
+        <f t="array" ref="AL37">MAX(ABS(AB37:AJ37))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>211</v>
       </c>
@@ -45455,8 +45772,12 @@
         <v>3.8846980000000003E-2</v>
       </c>
       <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL38" s="5" cm="1">
+        <f t="array" ref="AL38">MAX(ABS(AB38:AJ38))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>214</v>
       </c>
@@ -45503,8 +45824,12 @@
         <v>4.6816290000000003E-2</v>
       </c>
       <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL39" s="5" cm="1">
+        <f t="array" ref="AL39">MAX(ABS(AB39:AJ39))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>215</v>
       </c>
@@ -45551,8 +45876,12 @@
         <v>5.6680979999999999E-2</v>
       </c>
       <c r="P40" s="2"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL40" s="5" cm="1">
+        <f t="array" ref="AL40">MAX(ABS(AB40:AJ40))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>210</v>
       </c>
@@ -45599,8 +45928,12 @@
         <v>6.1148269999999998E-2</v>
       </c>
       <c r="P41" s="2"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL41" s="5" cm="1">
+        <f t="array" ref="AL41">MAX(ABS(AB41:AJ41))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>216</v>
       </c>
@@ -45647,8 +45980,12 @@
         <v>6.490551E-2</v>
       </c>
       <c r="P42" s="2"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL42" s="5" cm="1">
+        <f t="array" ref="AL42">MAX(ABS(AB42:AJ42))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>217</v>
       </c>
@@ -45695,8 +46032,12 @@
         <v>7.1622169999999999E-2</v>
       </c>
       <c r="P43" s="2"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL43" s="5" cm="1">
+        <f t="array" ref="AL43">MAX(ABS(AB43:AJ43))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>218</v>
       </c>
@@ -45743,8 +46084,12 @@
         <v>7.7106289999999994E-2</v>
       </c>
       <c r="P44" s="2"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL44" s="5" cm="1">
+        <f t="array" ref="AL44">MAX(ABS(AB44:AJ44))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>219</v>
       </c>
@@ -45791,8 +46136,12 @@
         <v>8.1604019999999999E-2</v>
       </c>
       <c r="P45" s="2"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL45" s="5" cm="1">
+        <f t="array" ref="AL45">MAX(ABS(AB45:AJ45))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>220</v>
       </c>
@@ -45839,8 +46188,12 @@
         <v>8.5310670000000005E-2</v>
       </c>
       <c r="P46" s="2"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL46" s="5" cm="1">
+        <f t="array" ref="AL46">MAX(ABS(AB46:AJ46))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>209</v>
       </c>
@@ -45887,8 +46240,12 @@
         <v>8.9764949999999996E-2</v>
       </c>
       <c r="P47" s="2"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL47" s="5" cm="1">
+        <f t="array" ref="AL47">MAX(ABS(AB47:AJ47))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>208</v>
       </c>
@@ -45935,8 +46292,12 @@
         <v>0.12114867999999999</v>
       </c>
       <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL48" s="5" cm="1">
+        <f t="array" ref="AL48">MAX(ABS(AB48:AJ48))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>207</v>
       </c>
@@ -45983,8 +46344,12 @@
         <v>0.15358394</v>
       </c>
       <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL49" s="5" cm="1">
+        <f t="array" ref="AL49">MAX(ABS(AB49:AJ49))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>206</v>
       </c>
@@ -46031,8 +46396,12 @@
         <v>0.18611753</v>
       </c>
       <c r="P50" s="2"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL50" s="5" cm="1">
+        <f t="array" ref="AL50">MAX(ABS(AB50:AJ50))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>205</v>
       </c>
@@ -46079,8 +46448,12 @@
         <v>0.21818878</v>
       </c>
       <c r="P51" s="2"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL51" s="5" cm="1">
+        <f t="array" ref="AL51">MAX(ABS(AB51:AJ51))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>204</v>
       </c>
@@ -46127,8 +46500,12 @@
         <v>0.24948583999999999</v>
       </c>
       <c r="P52" s="2"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL52" s="5" cm="1">
+        <f t="array" ref="AL52">MAX(ABS(AB52:AJ52))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>297</v>
       </c>
@@ -46202,8 +46579,48 @@
       <c r="Z53" s="2">
         <v>0.15240000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB53" s="4">
+        <f>(R53-AB$1)/AB$1</f>
+        <v>-3.3628318584070175E-3</v>
+      </c>
+      <c r="AC53" s="4">
+        <f t="shared" ref="AC53" si="18">(S53-AC$1)/AC$1</f>
+        <v>8.5822603719593526E-4</v>
+      </c>
+      <c r="AD53" s="4">
+        <f t="shared" ref="AD53" si="19">(T53-AD$1)/AD$1</f>
+        <v>5.8004640371219309E-4</v>
+      </c>
+      <c r="AE53" s="4">
+        <f t="shared" ref="AE53" si="20">(U53-AE$1)/AE$1</f>
+        <v>-2.0915750915760141E-4</v>
+      </c>
+      <c r="AF53" s="4">
+        <f t="shared" ref="AF53" si="21">(V53-AF$1)/AF$1</f>
+        <v>4.1615120274915332E-4</v>
+      </c>
+      <c r="AG53" s="4">
+        <f t="shared" ref="AG53" si="22">(W53-AG$1)/AG$1</f>
+        <v>-9.8540965207630747E-4</v>
+      </c>
+      <c r="AH53" s="4">
+        <f t="shared" ref="AH53" si="23">(X53-AH$1)/AH$1</f>
+        <v>7.5533980582530422E-4</v>
+      </c>
+      <c r="AI53" s="4">
+        <f t="shared" ref="AI53" si="24">(Y53-AI$1)/AI$1</f>
+        <v>1.3236225459171632E-4</v>
+      </c>
+      <c r="AJ53" s="4">
+        <f t="shared" ref="AJ53" si="25">(Z53-AJ$1)/AJ$1</f>
+        <v>0</v>
+      </c>
+      <c r="AL53" s="5" cm="1">
+        <f t="array" ref="AL53">MAX(ABS(AB53:AJ53))</f>
+        <v>3.3628318584070175E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>298</v>
       </c>
@@ -46250,8 +46667,12 @@
         <v>3.6059380000000002E-2</v>
       </c>
       <c r="P54" s="2"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL54" s="5" cm="1">
+        <f t="array" ref="AL54">MAX(ABS(AB54:AJ54))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>296</v>
       </c>
@@ -46298,8 +46719,12 @@
         <v>3.8871599999999999E-2</v>
       </c>
       <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL55" s="5" cm="1">
+        <f t="array" ref="AL55">MAX(ABS(AB55:AJ55))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>299</v>
       </c>
@@ -46346,8 +46771,12 @@
         <v>4.6700770000000003E-2</v>
       </c>
       <c r="P56" s="2"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL56" s="5" cm="1">
+        <f t="array" ref="AL56">MAX(ABS(AB56:AJ56))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>300</v>
       </c>
@@ -46394,8 +46823,12 @@
         <v>5.658535E-2</v>
       </c>
       <c r="P57" s="2"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL57" s="5" cm="1">
+        <f t="array" ref="AL57">MAX(ABS(AB57:AJ57))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>295</v>
       </c>
@@ -46442,8 +46875,12 @@
         <v>6.1248520000000001E-2</v>
       </c>
       <c r="P58" s="2"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL58" s="5" cm="1">
+        <f t="array" ref="AL58">MAX(ABS(AB58:AJ58))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>301</v>
       </c>
@@ -46490,8 +46927,12 @@
         <v>6.4826350000000005E-2</v>
       </c>
       <c r="P59" s="2"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL59" s="5" cm="1">
+        <f t="array" ref="AL59">MAX(ABS(AB59:AJ59))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>302</v>
       </c>
@@ -46538,8 +46979,12 @@
         <v>7.1555419999999995E-2</v>
       </c>
       <c r="P60" s="2"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL60" s="5" cm="1">
+        <f t="array" ref="AL60">MAX(ABS(AB60:AJ60))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>303</v>
       </c>
@@ -46586,8 +47031,12 @@
         <v>7.7048710000000006E-2</v>
       </c>
       <c r="P61" s="2"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL61" s="5" cm="1">
+        <f t="array" ref="AL61">MAX(ABS(AB61:AJ61))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>304</v>
       </c>
@@ -46634,8 +47083,12 @@
         <v>8.1553219999999996E-2</v>
       </c>
       <c r="P62" s="2"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL62" s="5" cm="1">
+        <f t="array" ref="AL62">MAX(ABS(AB62:AJ62))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>305</v>
       </c>
@@ -46682,8 +47135,12 @@
         <v>8.5264909999999999E-2</v>
       </c>
       <c r="P63" s="2"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL63" s="5" cm="1">
+        <f t="array" ref="AL63">MAX(ABS(AB63:AJ63))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>294</v>
       </c>
@@ -46730,8 +47187,12 @@
         <v>8.9904520000000002E-2</v>
       </c>
       <c r="P64" s="2"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL64" s="5" cm="1">
+        <f t="array" ref="AL64">MAX(ABS(AB64:AJ64))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>293</v>
       </c>
@@ -46778,8 +47239,12 @@
         <v>0.12131184</v>
       </c>
       <c r="P65" s="2"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL65" s="5" cm="1">
+        <f t="array" ref="AL65">MAX(ABS(AB65:AJ65))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>292</v>
       </c>
@@ -46826,8 +47291,12 @@
         <v>0.1537627</v>
       </c>
       <c r="P66" s="2"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL66" s="5" cm="1">
+        <f t="array" ref="AL66">MAX(ABS(AB66:AJ66))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>291</v>
       </c>
@@ -46874,8 +47343,12 @@
         <v>0.18630672000000001</v>
       </c>
       <c r="P67" s="2"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL67" s="5" cm="1">
+        <f t="array" ref="AL67">MAX(ABS(AB67:AJ67))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>290</v>
       </c>
@@ -46922,8 +47395,12 @@
         <v>0.21838484999999999</v>
       </c>
       <c r="P68" s="2"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL68" s="5" cm="1">
+        <f t="array" ref="AL68">MAX(ABS(AB68:AJ68))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>289</v>
       </c>
@@ -46970,8 +47447,12 @@
         <v>0.24968667999999999</v>
       </c>
       <c r="P69" s="2"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL69" s="5" cm="1">
+        <f t="array" ref="AL69">MAX(ABS(AB69:AJ69))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>382</v>
       </c>
@@ -47045,8 +47526,48 @@
       <c r="Z70" s="2">
         <v>0.15240000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB70" s="4">
+        <f>(R70-AB$1)/AB$1</f>
+        <v>-3.3185840707964211E-3</v>
+      </c>
+      <c r="AC70" s="4">
+        <f t="shared" ref="AC70" si="26">(S70-AC$1)/AC$1</f>
+        <v>9.9184549356212378E-4</v>
+      </c>
+      <c r="AD70" s="4">
+        <f t="shared" ref="AD70" si="27">(T70-AD$1)/AD$1</f>
+        <v>-2.3201856148491657E-3</v>
+      </c>
+      <c r="AE70" s="4">
+        <f t="shared" ref="AE70" si="28">(U70-AE$1)/AE$1</f>
+        <v>3.0293040293031951E-4</v>
+      </c>
+      <c r="AF70" s="4">
+        <f t="shared" ref="AF70" si="29">(V70-AF$1)/AF$1</f>
+        <v>1.1701030927834513E-3</v>
+      </c>
+      <c r="AG70" s="4">
+        <f t="shared" ref="AG70" si="30">(W70-AG$1)/AG$1</f>
+        <v>-2.0875420875419558E-3</v>
+      </c>
+      <c r="AH70" s="4">
+        <f t="shared" ref="AH70" si="31">(X70-AH$1)/AH$1</f>
+        <v>1.3514563106796697E-3</v>
+      </c>
+      <c r="AI70" s="4">
+        <f t="shared" ref="AI70" si="32">(Y70-AI$1)/AI$1</f>
+        <v>1.9854338188735475E-4</v>
+      </c>
+      <c r="AJ70" s="4">
+        <f t="shared" ref="AJ70" si="33">(Z70-AJ$1)/AJ$1</f>
+        <v>0</v>
+      </c>
+      <c r="AL70" s="5" cm="1">
+        <f t="array" ref="AL70">MAX(ABS(AB70:AJ70))</f>
+        <v>3.3185840707964211E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>383</v>
       </c>
@@ -47093,8 +47614,12 @@
         <v>3.611582E-2</v>
       </c>
       <c r="P71" s="2"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL71" s="5" cm="1">
+        <f t="array" ref="AL71">MAX(ABS(AB71:AJ71))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>381</v>
       </c>
@@ -47141,8 +47666,12 @@
         <v>3.8880020000000001E-2</v>
       </c>
       <c r="P72" s="2"/>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL72" s="5" cm="1">
+        <f t="array" ref="AL72">MAX(ABS(AB72:AJ72))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>384</v>
       </c>
@@ -47189,8 +47718,12 @@
         <v>4.6760570000000001E-2</v>
       </c>
       <c r="P73" s="2"/>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL73" s="5" cm="1">
+        <f t="array" ref="AL73">MAX(ABS(AB73:AJ73))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>385</v>
       </c>
@@ -47237,8 +47770,12 @@
         <v>5.6646740000000001E-2</v>
       </c>
       <c r="P74" s="2"/>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL74" s="5" cm="1">
+        <f t="array" ref="AL74">MAX(ABS(AB74:AJ74))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>380</v>
       </c>
@@ -47285,8 +47822,12 @@
         <v>6.1235820000000003E-2</v>
       </c>
       <c r="P75" s="2"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL75" s="5" cm="1">
+        <f t="array" ref="AL75">MAX(ABS(AB75:AJ75))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>386</v>
       </c>
@@ -47333,8 +47874,12 @@
         <v>6.4888710000000002E-2</v>
       </c>
       <c r="P76" s="2"/>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL76" s="5" cm="1">
+        <f t="array" ref="AL76">MAX(ABS(AB76:AJ76))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>387</v>
       </c>
@@ -47381,8 +47926,12 @@
         <v>7.1618189999999998E-2</v>
       </c>
       <c r="P77" s="2"/>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL77" s="5" cm="1">
+        <f t="array" ref="AL77">MAX(ABS(AB77:AJ77))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>388</v>
       </c>
@@ -47429,8 +47978,12 @@
         <v>7.7111449999999998E-2</v>
       </c>
       <c r="P78" s="2"/>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL78" s="5" cm="1">
+        <f t="array" ref="AL78">MAX(ABS(AB78:AJ78))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>389</v>
       </c>
@@ -47477,8 +48030,12 @@
         <v>8.1615610000000005E-2</v>
       </c>
       <c r="P79" s="2"/>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL79" s="5" cm="1">
+        <f t="array" ref="AL79">MAX(ABS(AB79:AJ79))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>390</v>
       </c>
@@ -47525,8 +48082,12 @@
         <v>8.5326780000000005E-2</v>
       </c>
       <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL80" s="5" cm="1">
+        <f t="array" ref="AL80">MAX(ABS(AB80:AJ80))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>379</v>
       </c>
@@ -47573,8 +48134,12 @@
         <v>8.9880000000000002E-2</v>
       </c>
       <c r="P81" s="2"/>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL81" s="5" cm="1">
+        <f t="array" ref="AL81">MAX(ABS(AB81:AJ81))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>378</v>
       </c>
@@ -47621,8 +48186,12 @@
         <v>0.12127866</v>
       </c>
       <c r="P82" s="2"/>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL82" s="5" cm="1">
+        <f t="array" ref="AL82">MAX(ABS(AB82:AJ82))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>377</v>
       </c>
@@ -47669,8 +48238,12 @@
         <v>0.15372204</v>
       </c>
       <c r="P83" s="2"/>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL83" s="5" cm="1">
+        <f t="array" ref="AL83">MAX(ABS(AB83:AJ83))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>376</v>
       </c>
@@ -47717,8 +48290,12 @@
         <v>0.18625913999999999</v>
       </c>
       <c r="P84" s="2"/>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL84" s="5" cm="1">
+        <f t="array" ref="AL84">MAX(ABS(AB84:AJ84))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>375</v>
       </c>
@@ -47765,8 +48342,12 @@
         <v>0.21833063999999999</v>
       </c>
       <c r="P85" s="2"/>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL85" s="5" cm="1">
+        <f t="array" ref="AL85">MAX(ABS(AB85:AJ85))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>374</v>
       </c>
@@ -47813,8 +48394,12 @@
         <v>0.24962630999999999</v>
       </c>
       <c r="P86" s="2"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL86" s="5" cm="1">
+        <f t="array" ref="AL86">MAX(ABS(AB86:AJ86))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>467</v>
       </c>
@@ -47888,8 +48473,48 @@
       <c r="Z87" s="2">
         <v>0.15240000000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB87" s="4">
+        <f>(R87-AB$1)/AB$1</f>
+        <v>-1.5929203539823157E-3</v>
+      </c>
+      <c r="AC87" s="4">
+        <f t="shared" ref="AC87" si="34">(S87-AC$1)/AC$1</f>
+        <v>5.9327610872677802E-4</v>
+      </c>
+      <c r="AD87" s="4">
+        <f t="shared" ref="AD87" si="35">(T87-AD$1)/AD$1</f>
+        <v>5.8004640371219309E-4</v>
+      </c>
+      <c r="AE87" s="4">
+        <f t="shared" ref="AE87" si="36">(U87-AE$1)/AE$1</f>
+        <v>4.4688644688633461E-5</v>
+      </c>
+      <c r="AF87" s="4">
+        <f t="shared" ref="AF87" si="37">(V87-AF$1)/AF$1</f>
+        <v>-1.0544100801832337E-3</v>
+      </c>
+      <c r="AG87" s="4">
+        <f t="shared" ref="AG87" si="38">(W87-AG$1)/AG$1</f>
+        <v>2.3658810325476666E-3</v>
+      </c>
+      <c r="AH87" s="4">
+        <f t="shared" ref="AH87" si="39">(X87-AH$1)/AH$1</f>
+        <v>-1.4194174757281466E-3</v>
+      </c>
+      <c r="AI87" s="4">
+        <f t="shared" ref="AI87" si="40">(Y87-AI$1)/AI$1</f>
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="4">
+        <f t="shared" ref="AJ87" si="41">(Z87-AJ$1)/AJ$1</f>
+        <v>0</v>
+      </c>
+      <c r="AL87" s="5" cm="1">
+        <f t="array" ref="AL87">MAX(ABS(AB87:AJ87))</f>
+        <v>2.3658810325476666E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>468</v>
       </c>
@@ -47936,8 +48561,12 @@
         <v>3.6060479999999999E-2</v>
       </c>
       <c r="P88" s="2"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL88" s="5" cm="1">
+        <f t="array" ref="AL88">MAX(ABS(AB88:AJ88))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>466</v>
       </c>
@@ -47984,8 +48613,12 @@
         <v>3.8793439999999998E-2</v>
       </c>
       <c r="P89" s="2"/>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL89" s="5" cm="1">
+        <f t="array" ref="AL89">MAX(ABS(AB89:AJ89))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>469</v>
       </c>
@@ -48032,8 +48665,12 @@
         <v>4.671347E-2</v>
       </c>
       <c r="P90" s="2"/>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL90" s="5" cm="1">
+        <f t="array" ref="AL90">MAX(ABS(AB90:AJ90))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>470</v>
       </c>
@@ -48080,8 +48717,12 @@
         <v>5.6599999999999998E-2</v>
       </c>
       <c r="P91" s="2"/>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL91" s="5" cm="1">
+        <f t="array" ref="AL91">MAX(ABS(AB91:AJ91))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>465</v>
       </c>
@@ -48128,8 +48769,12 @@
         <v>6.115872E-2</v>
       </c>
       <c r="P92" s="2"/>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL92" s="5" cm="1">
+        <f t="array" ref="AL92">MAX(ABS(AB92:AJ92))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>471</v>
       </c>
@@ -48176,8 +48821,12 @@
         <v>6.4841289999999996E-2</v>
       </c>
       <c r="P93" s="2"/>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL93" s="5" cm="1">
+        <f t="array" ref="AL93">MAX(ABS(AB93:AJ93))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>472</v>
       </c>
@@ -48224,8 +48873,12 @@
         <v>7.157086E-2</v>
       </c>
       <c r="P94" s="2"/>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL94" s="5" cm="1">
+        <f t="array" ref="AL94">MAX(ABS(AB94:AJ94))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>473</v>
       </c>
@@ -48272,8 +48925,12 @@
         <v>7.7065040000000001E-2</v>
       </c>
       <c r="P95" s="2"/>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL95" s="5" cm="1">
+        <f t="array" ref="AL95">MAX(ABS(AB95:AJ95))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>474</v>
       </c>
@@ -48320,8 +48977,12 @@
         <v>8.1570710000000005E-2</v>
       </c>
       <c r="P96" s="2"/>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL96" s="5" cm="1">
+        <f t="array" ref="AL96">MAX(ABS(AB96:AJ96))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>475</v>
       </c>
@@ -48368,8 +49029,12 @@
         <v>8.5283680000000001E-2</v>
       </c>
       <c r="P97" s="2"/>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL97" s="5" cm="1">
+        <f t="array" ref="AL97">MAX(ABS(AB97:AJ97))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>464</v>
       </c>
@@ -48416,8 +49081,12 @@
         <v>8.9813019999999993E-2</v>
       </c>
       <c r="P98" s="2"/>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL98" s="5" cm="1">
+        <f t="array" ref="AL98">MAX(ABS(AB98:AJ98))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>463</v>
       </c>
@@ -48464,8 +49133,12 @@
         <v>0.12122119000000001</v>
       </c>
       <c r="P99" s="2"/>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL99" s="5" cm="1">
+        <f t="array" ref="AL99">MAX(ABS(AB99:AJ99))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>462</v>
       </c>
@@ -48512,8 +49185,12 @@
         <v>0.15367375</v>
       </c>
       <c r="P100" s="2"/>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL100" s="5" cm="1">
+        <f t="array" ref="AL100">MAX(ABS(AB100:AJ100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>461</v>
       </c>
@@ -48560,8 +49237,12 @@
         <v>0.18621984</v>
       </c>
       <c r="P101" s="2"/>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL101" s="5" cm="1">
+        <f t="array" ref="AL101">MAX(ABS(AB101:AJ101))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>460</v>
       </c>
@@ -48608,8 +49289,12 @@
         <v>0.21830007000000001</v>
       </c>
       <c r="P102" s="2"/>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL102" s="5" cm="1">
+        <f t="array" ref="AL102">MAX(ABS(AB102:AJ102))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>459</v>
       </c>
@@ -48656,8 +49341,12 @@
         <v>0.24960362</v>
       </c>
       <c r="P103" s="2"/>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL103" s="5" cm="1">
+        <f t="array" ref="AL103">MAX(ABS(AB103:AJ103))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>552</v>
       </c>
@@ -48731,8 +49420,48 @@
       <c r="Z104" s="2">
         <v>0.15240000000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB104" s="4">
+        <f>(R104-AB$1)/AB$1</f>
+        <v>-1.8584070796460149E-3</v>
+      </c>
+      <c r="AC104" s="4">
+        <f t="shared" ref="AC104" si="42">(S104-AC$1)/AC$1</f>
+        <v>4.8540772532190923E-4</v>
+      </c>
+      <c r="AD104" s="4">
+        <f t="shared" ref="AD104" si="43">(T104-AD$1)/AD$1</f>
+        <v>5.8004640371219309E-4</v>
+      </c>
+      <c r="AE104" s="4">
+        <f t="shared" ref="AE104" si="44">(U104-AE$1)/AE$1</f>
+        <v>1.1318681318671287E-4</v>
+      </c>
+      <c r="AF104" s="4">
+        <f t="shared" ref="AF104" si="45">(V104-AF$1)/AF$1</f>
+        <v>-2.0320733104240777E-4</v>
+      </c>
+      <c r="AG104" s="4">
+        <f t="shared" ref="AG104" si="46">(W104-AG$1)/AG$1</f>
+        <v>-9.8428731762064629E-4</v>
+      </c>
+      <c r="AH104" s="4">
+        <f t="shared" ref="AH104" si="47">(X104-AH$1)/AH$1</f>
+        <v>-1.5922330097093871E-4</v>
+      </c>
+      <c r="AI104" s="4">
+        <f t="shared" ref="AI104" si="48">(Y104-AI$1)/AI$1</f>
+        <v>6.1114629512481027E-5</v>
+      </c>
+      <c r="AJ104" s="4">
+        <f t="shared" ref="AJ104" si="49">(Z104-AJ$1)/AJ$1</f>
+        <v>0</v>
+      </c>
+      <c r="AL104" s="5" cm="1">
+        <f t="array" ref="AL104">MAX(ABS(AB104:AJ104))</f>
+        <v>1.8584070796460149E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>553</v>
       </c>
@@ -48779,8 +49508,12 @@
         <v>3.6086269999999997E-2</v>
       </c>
       <c r="P105" s="2"/>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL105" s="5" cm="1">
+        <f t="array" ref="AL105">MAX(ABS(AB105:AJ105))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>551</v>
       </c>
@@ -48827,8 +49560,12 @@
         <v>3.8863719999999997E-2</v>
       </c>
       <c r="P106" s="2"/>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL106" s="5" cm="1">
+        <f t="array" ref="AL106">MAX(ABS(AB106:AJ106))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>554</v>
       </c>
@@ -48875,8 +49612,12 @@
         <v>4.6713289999999998E-2</v>
       </c>
       <c r="P107" s="2"/>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL107" s="5" cm="1">
+        <f t="array" ref="AL107">MAX(ABS(AB107:AJ107))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>555</v>
       </c>
@@ -48923,8 +49664,12 @@
         <v>5.6584540000000003E-2</v>
       </c>
       <c r="P108" s="2"/>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL108" s="5" cm="1">
+        <f t="array" ref="AL108">MAX(ABS(AB108:AJ108))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>550</v>
       </c>
@@ -48971,8 +49716,12 @@
         <v>6.1210809999999997E-2</v>
       </c>
       <c r="P109" s="2"/>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL109" s="5" cm="1">
+        <f t="array" ref="AL109">MAX(ABS(AB109:AJ109))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>556</v>
       </c>
@@ -49019,8 +49768,12 @@
         <v>6.4815479999999995E-2</v>
       </c>
       <c r="P110" s="2"/>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL110" s="5" cm="1">
+        <f t="array" ref="AL110">MAX(ABS(AB110:AJ110))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>557</v>
       </c>
@@ -49067,8 +49820,12 @@
         <v>7.1537260000000005E-2</v>
       </c>
       <c r="P111" s="2"/>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL111" s="5" cm="1">
+        <f t="array" ref="AL111">MAX(ABS(AB111:AJ111))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>558</v>
       </c>
@@ -49115,8 +49872,12 @@
         <v>7.7025270000000007E-2</v>
       </c>
       <c r="P112" s="2"/>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL112" s="5" cm="1">
+        <f t="array" ref="AL112">MAX(ABS(AB112:AJ112))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>559</v>
       </c>
@@ -49163,8 +49924,12 @@
         <v>8.1525920000000002E-2</v>
       </c>
       <c r="P113" s="2"/>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL113" s="5" cm="1">
+        <f t="array" ref="AL113">MAX(ABS(AB113:AJ113))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>560</v>
       </c>
@@ -49211,8 +49976,12 @@
         <v>8.5234729999999995E-2</v>
       </c>
       <c r="P114" s="2"/>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL114" s="5" cm="1">
+        <f t="array" ref="AL114">MAX(ABS(AB114:AJ114))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>549</v>
       </c>
@@ -49259,8 +50028,12 @@
         <v>8.9847880000000005E-2</v>
       </c>
       <c r="P115" s="2"/>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL115" s="5" cm="1">
+        <f t="array" ref="AL115">MAX(ABS(AB115:AJ115))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>548</v>
       </c>
@@ -49307,8 +50080,12 @@
         <v>0.12124198999999999</v>
       </c>
       <c r="P116" s="2"/>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL116" s="5" cm="1">
+        <f t="array" ref="AL116">MAX(ABS(AB116:AJ116))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>547</v>
       </c>
@@ -49355,8 +50132,12 @@
         <v>0.15368256999999999</v>
       </c>
       <c r="P117" s="2"/>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL117" s="5" cm="1">
+        <f t="array" ref="AL117">MAX(ABS(AB117:AJ117))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>546</v>
       </c>
@@ -49403,8 +50184,12 @@
         <v>0.18621773999999999</v>
       </c>
       <c r="P118" s="2"/>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL118" s="5" cm="1">
+        <f t="array" ref="AL118">MAX(ABS(AB118:AJ118))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>545</v>
       </c>
@@ -49451,8 +50236,12 @@
         <v>0.21828734999999999</v>
       </c>
       <c r="P119" s="2"/>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL119" s="5" cm="1">
+        <f t="array" ref="AL119">MAX(ABS(AB119:AJ119))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>544</v>
       </c>
@@ -49499,8 +50288,12 @@
         <v>0.24958021</v>
       </c>
       <c r="P120" s="2"/>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL120" s="5" cm="1">
+        <f t="array" ref="AL120">MAX(ABS(AB120:AJ120))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>637</v>
       </c>
@@ -49574,8 +50367,48 @@
       <c r="Z121" s="2">
         <v>0.15240000000000001</v>
       </c>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB121" s="4">
+        <f>(R121-AB$1)/AB$1</f>
+        <v>-8.8495575221193118E-5</v>
+      </c>
+      <c r="AC121" s="4">
+        <f t="shared" ref="AC121" si="50">(S121-AC$1)/AC$1</f>
+        <v>2.2703862660945865E-4</v>
+      </c>
+      <c r="AD121" s="4">
+        <f t="shared" ref="AD121" si="51">(T121-AD$1)/AD$1</f>
+        <v>5.8004640371219309E-4</v>
+      </c>
+      <c r="AE121" s="4">
+        <f t="shared" ref="AE121" si="52">(U121-AE$1)/AE$1</f>
+        <v>-2.8571428571513061E-5</v>
+      </c>
+      <c r="AF121" s="4">
+        <f t="shared" ref="AF121" si="53">(V121-AF$1)/AF$1</f>
+        <v>1.5246277205042938E-4</v>
+      </c>
+      <c r="AG121" s="4">
+        <f t="shared" ref="AG121" si="54">(W121-AG$1)/AG$1</f>
+        <v>4.3995510662188625E-4</v>
+      </c>
+      <c r="AH121" s="4">
+        <f t="shared" ref="AH121" si="55">(X121-AH$1)/AH$1</f>
+        <v>-2.3300970873782763E-4</v>
+      </c>
+      <c r="AI121" s="4">
+        <f t="shared" ref="AI121" si="56">(Y121-AI$1)/AI$1</f>
+        <v>-3.9582013932688772E-5</v>
+      </c>
+      <c r="AJ121" s="4">
+        <f t="shared" ref="AJ121" si="57">(Z121-AJ$1)/AJ$1</f>
+        <v>0</v>
+      </c>
+      <c r="AL121" s="5" cm="1">
+        <f t="array" ref="AL121">MAX(ABS(AB121:AJ121))</f>
+        <v>5.8004640371219309E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>638</v>
       </c>
@@ -49622,8 +50455,12 @@
         <v>3.610447E-2</v>
       </c>
       <c r="P122" s="2"/>
-    </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL122" s="5" cm="1">
+        <f t="array" ref="AL122">MAX(ABS(AB122:AJ122))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>636</v>
       </c>
@@ -49670,8 +50507,12 @@
         <v>3.8882519999999997E-2</v>
       </c>
       <c r="P123" s="2"/>
-    </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL123" s="5" cm="1">
+        <f t="array" ref="AL123">MAX(ABS(AB123:AJ123))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>639</v>
       </c>
@@ -49718,8 +50559,12 @@
         <v>4.6729390000000003E-2</v>
       </c>
       <c r="P124" s="2"/>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL124" s="5" cm="1">
+        <f t="array" ref="AL124">MAX(ABS(AB124:AJ124))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>640</v>
       </c>
@@ -49766,8 +50611,12 @@
         <v>5.6602779999999998E-2</v>
       </c>
       <c r="P125" s="2"/>
-    </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL125" s="5" cm="1">
+        <f t="array" ref="AL125">MAX(ABS(AB125:AJ125))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>635</v>
       </c>
@@ -49814,8 +50663,12 @@
         <v>6.1217300000000002E-2</v>
       </c>
       <c r="P126" s="2"/>
-    </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL126" s="5" cm="1">
+        <f t="array" ref="AL126">MAX(ABS(AB126:AJ126))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>641</v>
       </c>
@@ -49862,8 +50715,12 @@
         <v>6.4837389999999995E-2</v>
       </c>
       <c r="P127" s="2"/>
-    </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL127" s="5" cm="1">
+        <f t="array" ref="AL127">MAX(ABS(AB127:AJ127))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>642</v>
       </c>
@@ -49910,8 +50767,12 @@
         <v>7.1562879999999995E-2</v>
       </c>
       <c r="P128" s="2"/>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL128" s="5" cm="1">
+        <f t="array" ref="AL128">MAX(ABS(AB128:AJ128))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>643</v>
       </c>
@@ -49958,8 +50819,12 @@
         <v>7.7054120000000004E-2</v>
       </c>
       <c r="P129" s="2"/>
-    </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL129" s="5" cm="1">
+        <f t="array" ref="AL129">MAX(ABS(AB129:AJ129))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>644</v>
       </c>
@@ -50006,8 +50871,12 @@
         <v>8.1557420000000005E-2</v>
       </c>
       <c r="P130" s="2"/>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL130" s="5" cm="1">
+        <f t="array" ref="AL130">MAX(ABS(AB130:AJ130))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>645</v>
       </c>
@@ -50054,8 +50923,12 @@
         <v>8.5268369999999996E-2</v>
       </c>
       <c r="P131" s="2"/>
-    </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL131" s="5" cm="1">
+        <f t="array" ref="AL131">MAX(ABS(AB131:AJ131))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>634</v>
       </c>
@@ -50102,8 +50975,12 @@
         <v>8.9842439999999996E-2</v>
       </c>
       <c r="P132" s="2"/>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL132" s="5" cm="1">
+        <f t="array" ref="AL132">MAX(ABS(AB132:AJ132))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>633</v>
       </c>
@@ -50150,8 +51027,12 @@
         <v>0.12122586</v>
       </c>
       <c r="P133" s="2"/>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL133" s="5" cm="1">
+        <f t="array" ref="AL133">MAX(ABS(AB133:AJ133))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>632</v>
       </c>
@@ -50198,8 +51079,12 @@
         <v>0.1536574</v>
       </c>
       <c r="P134" s="2"/>
-    </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL134" s="5" cm="1">
+        <f t="array" ref="AL134">MAX(ABS(AB134:AJ134))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>631</v>
       </c>
@@ -50246,8 +51131,12 @@
         <v>0.18618552999999999</v>
       </c>
       <c r="P135" s="2"/>
-    </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL135" s="5" cm="1">
+        <f t="array" ref="AL135">MAX(ABS(AB135:AJ135))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>630</v>
       </c>
@@ -50294,8 +51183,12 @@
         <v>0.21825027999999999</v>
       </c>
       <c r="P136" s="2"/>
-    </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL136" s="5" cm="1">
+        <f t="array" ref="AL136">MAX(ABS(AB136:AJ136))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>629</v>
       </c>
@@ -50342,8 +51235,12 @@
         <v>0.24954029</v>
       </c>
       <c r="P137" s="2"/>
-    </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL137" s="5" cm="1">
+        <f t="array" ref="AL137">MAX(ABS(AB137:AJ137))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>722</v>
       </c>
@@ -50417,8 +51314,48 @@
       <c r="Z138" s="2">
         <v>0.15240000000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB138" s="4">
+        <f>(R138-AB$1)/AB$1</f>
+        <v>-8.8495575221229103E-4</v>
+      </c>
+      <c r="AC138" s="4">
+        <f t="shared" ref="AC138" si="58">(S138-AC$1)/AC$1</f>
+        <v>2.4821173104433919E-4</v>
+      </c>
+      <c r="AD138" s="4">
+        <f t="shared" ref="AD138" si="59">(T138-AD$1)/AD$1</f>
+        <v>-2.3201856148491657E-3</v>
+      </c>
+      <c r="AE138" s="4">
+        <f t="shared" ref="AE138" si="60">(U138-AE$1)/AE$1</f>
+        <v>2.9065934065923484E-4</v>
+      </c>
+      <c r="AF138" s="4">
+        <f t="shared" ref="AF138" si="61">(V138-AF$1)/AF$1</f>
+        <v>4.9278350515453431E-4</v>
+      </c>
+      <c r="AG138" s="4">
+        <f t="shared" ref="AG138" si="62">(W138-AG$1)/AG$1</f>
+        <v>-1.3647586980919089E-3</v>
+      </c>
+      <c r="AH138" s="4">
+        <f t="shared" ref="AH138" si="63">(X138-AH$1)/AH$1</f>
+        <v>5.1650485436889615E-4</v>
+      </c>
+      <c r="AI138" s="4">
+        <f t="shared" ref="AI138" si="64">(Y138-AI$1)/AI$1</f>
+        <v>-1.0607979734006292E-4</v>
+      </c>
+      <c r="AJ138" s="4">
+        <f t="shared" ref="AJ138" si="65">(Z138-AJ$1)/AJ$1</f>
+        <v>0</v>
+      </c>
+      <c r="AL138" s="5" cm="1">
+        <f t="array" ref="AL138">MAX(ABS(AB138:AJ138))</f>
+        <v>2.3201856148491657E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>723</v>
       </c>
@@ -50465,8 +51402,12 @@
         <v>3.6145219999999999E-2</v>
       </c>
       <c r="P139" s="2"/>
-    </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL139" s="5" cm="1">
+        <f t="array" ref="AL139">MAX(ABS(AB139:AJ139))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>721</v>
       </c>
@@ -50513,8 +51454,12 @@
         <v>3.8898420000000003E-2</v>
       </c>
       <c r="P140" s="2"/>
-    </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL140" s="5" cm="1">
+        <f t="array" ref="AL140">MAX(ABS(AB140:AJ140))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>724</v>
       </c>
@@ -50561,8 +51506,12 @@
         <v>4.6756779999999998E-2</v>
       </c>
       <c r="P141" s="2"/>
-    </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL141" s="5" cm="1">
+        <f t="array" ref="AL141">MAX(ABS(AB141:AJ141))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>725</v>
       </c>
@@ -50609,8 +51558,12 @@
         <v>5.6616090000000001E-2</v>
       </c>
       <c r="P142" s="2"/>
-    </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL142" s="5" cm="1">
+        <f t="array" ref="AL142">MAX(ABS(AB142:AJ142))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>720</v>
       </c>
@@ -50657,8 +51610,12 @@
         <v>6.1215850000000002E-2</v>
       </c>
       <c r="P143" s="2"/>
-    </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL143" s="5" cm="1">
+        <f t="array" ref="AL143">MAX(ABS(AB143:AJ143))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>726</v>
       </c>
@@ -50705,8 +51662,12 @@
         <v>6.4838430000000002E-2</v>
       </c>
       <c r="P144" s="2"/>
-    </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL144" s="5" cm="1">
+        <f t="array" ref="AL144">MAX(ABS(AB144:AJ144))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>727</v>
       </c>
@@ -50753,8 +51714,12 @@
         <v>7.1553900000000004E-2</v>
       </c>
       <c r="P145" s="2"/>
-    </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL145" s="5" cm="1">
+        <f t="array" ref="AL145">MAX(ABS(AB145:AJ145))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>728</v>
       </c>
@@ -50801,8 +51766,12 @@
         <v>7.7037190000000005E-2</v>
       </c>
       <c r="P146" s="2"/>
-    </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL146" s="5" cm="1">
+        <f t="array" ref="AL146">MAX(ABS(AB146:AJ146))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>729</v>
       </c>
@@ -50849,8 +51818,12 @@
         <v>8.1534220000000004E-2</v>
       </c>
       <c r="P147" s="2"/>
-    </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL147" s="5" cm="1">
+        <f t="array" ref="AL147">MAX(ABS(AB147:AJ147))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>730</v>
       </c>
@@ -50897,8 +51870,12 @@
         <v>8.5240220000000005E-2</v>
       </c>
       <c r="P148" s="2"/>
-    </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL148" s="5" cm="1">
+        <f t="array" ref="AL148">MAX(ABS(AB148:AJ148))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>719</v>
       </c>
@@ -50945,8 +51922,12 @@
         <v>8.9835509999999993E-2</v>
       </c>
       <c r="P149" s="2"/>
-    </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL149" s="5" cm="1">
+        <f t="array" ref="AL149">MAX(ABS(AB149:AJ149))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>718</v>
       </c>
@@ -50993,8 +51974,12 @@
         <v>0.12121924000000001</v>
       </c>
       <c r="P150" s="2"/>
-    </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL150" s="5" cm="1">
+        <f t="array" ref="AL150">MAX(ABS(AB150:AJ150))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>717</v>
       </c>
@@ -51041,8 +52026,12 @@
         <v>0.15365374000000001</v>
       </c>
       <c r="P151" s="2"/>
-    </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL151" s="5" cm="1">
+        <f t="array" ref="AL151">MAX(ABS(AB151:AJ151))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>716</v>
       </c>
@@ -51089,8 +52078,12 @@
         <v>0.18618614999999999</v>
       </c>
       <c r="P152" s="2"/>
-    </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL152" s="5" cm="1">
+        <f t="array" ref="AL152">MAX(ABS(AB152:AJ152))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>715</v>
       </c>
@@ -51137,8 +52130,12 @@
         <v>0.21825581999999999</v>
       </c>
       <c r="P153" s="2"/>
-    </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL153" s="5" cm="1">
+        <f t="array" ref="AL153">MAX(ABS(AB153:AJ153))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>714</v>
       </c>
@@ -51185,8 +52182,12 @@
         <v>0.24955063</v>
       </c>
       <c r="P154" s="2"/>
-    </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AL154" s="5" cm="1">
+        <f t="array" ref="AL154">MAX(ABS(AB154:AJ154))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>807</v>
       </c>
@@ -51260,8 +52261,48 @@
       <c r="Z155" s="2">
         <v>0.15240000000000001</v>
       </c>
-    </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB155" s="4">
+        <f>(R155-AB$1)/AB$1</f>
+        <v>-1.2831858407078998E-3</v>
+      </c>
+      <c r="AC155" s="4">
+        <f t="shared" ref="AC155" si="66">(S155-AC$1)/AC$1</f>
+        <v>3.9527896995709169E-4</v>
+      </c>
+      <c r="AD155" s="4">
+        <f t="shared" ref="AD155" si="67">(T155-AD$1)/AD$1</f>
+        <v>5.8004640371219309E-4</v>
+      </c>
+      <c r="AE155" s="4">
+        <f t="shared" ref="AE155" si="68">(U155-AE$1)/AE$1</f>
+        <v>-3.6336996336996583E-4</v>
+      </c>
+      <c r="AF155" s="4">
+        <f t="shared" ref="AF155" si="69">(V155-AF$1)/AF$1</f>
+        <v>1.2943871706748994E-4</v>
+      </c>
+      <c r="AG155" s="4">
+        <f t="shared" ref="AG155" si="70">(W155-AG$1)/AG$1</f>
+        <v>4.3771043771056398E-4</v>
+      </c>
+      <c r="AH155" s="4">
+        <f t="shared" ref="AH155" si="71">(X155-AH$1)/AH$1</f>
+        <v>8.4854368932040165E-4</v>
+      </c>
+      <c r="AI155" s="4">
+        <f t="shared" ref="AI155" si="72">(Y155-AI$1)/AI$1</f>
+        <v>-1.5262824572500513E-4</v>
+      </c>
+      <c r="AJ155" s="4">
+        <f t="shared" ref="AJ155" si="73">(Z155-AJ$1)/AJ$1</f>
+        <v>0</v>
+      </c>
+      <c r="AL155" s="5" cm="1">
+        <f t="array" ref="AL155">MAX(ABS(AB155:AJ155))</f>
+        <v>1.2831858407078998E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>808</v>
       </c>
@@ -51309,7 +52350,7 @@
       </c>
       <c r="P156" s="2"/>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>806</v>
       </c>
@@ -51357,7 +52398,7 @@
       </c>
       <c r="P157" s="2"/>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>809</v>
       </c>
@@ -51405,7 +52446,7 @@
       </c>
       <c r="P158" s="2"/>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>810</v>
       </c>
@@ -51453,7 +52494,7 @@
       </c>
       <c r="P159" s="2"/>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>805</v>
       </c>
@@ -51501,7 +52542,7 @@
       </c>
       <c r="P160" s="2"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>811</v>
       </c>
@@ -51549,7 +52590,7 @@
       </c>
       <c r="P161" s="2"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>812</v>
       </c>
@@ -51597,7 +52638,7 @@
       </c>
       <c r="P162" s="2"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>813</v>
       </c>
@@ -51645,7 +52686,7 @@
       </c>
       <c r="P163" s="2"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>814</v>
       </c>
@@ -51693,7 +52734,7 @@
       </c>
       <c r="P164" s="2"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>815</v>
       </c>
@@ -51741,7 +52782,7 @@
       </c>
       <c r="P165" s="2"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>804</v>
       </c>
@@ -51789,7 +52830,7 @@
       </c>
       <c r="P166" s="2"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>803</v>
       </c>
@@ -51837,7 +52878,7 @@
       </c>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>802</v>
       </c>
@@ -51885,7 +52926,7 @@
       </c>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>801</v>
       </c>
@@ -51933,7 +52974,7 @@
       </c>
       <c r="P169" s="2"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>800</v>
       </c>
@@ -51980,8 +53021,12 @@
         <v>0.21836885</v>
       </c>
       <c r="P170" s="2"/>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AL170" s="5">
+        <f>MAX(AL2:AL155)</f>
+        <v>3.8053097345133432E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>799</v>
       </c>
@@ -52029,13 +53074,8 @@
       </c>
       <c r="P171" s="2"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="Q174" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:P172"/>
+  <autoFilter ref="A1:P172" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P172">
     <sortCondition ref="C2:C172"/>
     <sortCondition ref="O2:O172"/>
